--- a/Segunda Parte/docs/Cuestionario SUS DIU.xlsx
+++ b/Segunda Parte/docs/Cuestionario SUS DIU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisg\OneDrive\Documentos\GitHub\DiuExamen\Segunda Parte\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71834460-D8F6-41F7-BB89-58CDCCA62CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC4992C-4B37-4F32-B17E-F02EE326E347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t xml:space="preserve">DISEÑO DE INTERFACES DE USUARIO </t>
   </si>
@@ -206,12 +206,18 @@
   <si>
     <t>App : CityMe</t>
   </si>
+  <si>
+    <t>ACEPTABLE TIPO A</t>
+  </si>
+  <si>
+    <t>ACEPTABLE TIPO c</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -252,6 +258,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -528,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -587,6 +599,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -599,9 +641,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -611,32 +650,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -930,58 +945,58 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="13.5" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="39" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" thickTop="1" thickBot="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="37"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1" thickTop="1">
-      <c r="C4" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="35"/>
+      <c r="C4" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="32" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="33"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1011,20 +1026,20 @@
       <c r="A7" s="9">
         <v>1</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="10">
         <v>4</v>
       </c>
-      <c r="D7" s="11">
-        <v>4</v>
+      <c r="D7" s="13">
+        <v>3</v>
       </c>
       <c r="E7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1034,17 +1049,17 @@
       <c r="A8" s="9">
         <v>2</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13">
         <v>2</v>
       </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
       <c r="E8" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
@@ -1057,13 +1072,13 @@
       <c r="A9" s="9">
         <v>3</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="10">
         <v>4</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="13">
         <v>4</v>
       </c>
       <c r="E9" s="12">
@@ -1080,13 +1095,13 @@
       <c r="A10" s="9">
         <v>4</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="10">
         <v>1</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="13">
         <v>1</v>
       </c>
       <c r="E10" s="12">
@@ -1103,20 +1118,20 @@
       <c r="A11" s="9">
         <v>5</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="10">
-        <v>4</v>
-      </c>
-      <c r="D11" s="11">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D11" s="13">
+        <v>5</v>
       </c>
       <c r="E11" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1126,20 +1141,20 @@
       <c r="A12" s="9">
         <v>6</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="10">
+        <v>2</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12">
         <v>1</v>
       </c>
-      <c r="D12" s="11">
+      <c r="F12" s="13">
         <v>1</v>
-      </c>
-      <c r="E12" s="12">
-        <v>2</v>
-      </c>
-      <c r="F12" s="13">
-        <v>2</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1149,20 +1164,20 @@
       <c r="A13" s="9">
         <v>7</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="10">
         <v>4</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="13">
         <v>5</v>
       </c>
       <c r="E13" s="12">
         <v>4</v>
       </c>
       <c r="F13" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1172,20 +1187,20 @@
       <c r="A14" s="9">
         <v>8</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13">
+        <v>3</v>
+      </c>
+      <c r="E14" s="12">
         <v>2</v>
       </c>
-      <c r="D14" s="11">
+      <c r="F14" s="13">
         <v>2</v>
-      </c>
-      <c r="E14" s="12">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13">
-        <v>1</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1195,20 +1210,20 @@
       <c r="A15" s="9">
         <v>9</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="10">
         <v>4</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="13">
+        <v>4</v>
+      </c>
+      <c r="E15" s="12">
+        <v>4</v>
+      </c>
+      <c r="F15" s="13">
         <v>5</v>
-      </c>
-      <c r="E15" s="12">
-        <v>4</v>
-      </c>
-      <c r="F15" s="13">
-        <v>4</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1218,20 +1233,20 @@
       <c r="A16" s="9">
         <v>10</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13">
         <v>2</v>
       </c>
-      <c r="D16" s="11">
+      <c r="E16" s="12">
+        <v>2</v>
+      </c>
+      <c r="F16" s="13">
         <v>3</v>
-      </c>
-      <c r="E16" s="12">
-        <v>1</v>
-      </c>
-      <c r="F16" s="13">
-        <v>2</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1244,19 +1259,19 @@
       </c>
       <c r="C17" s="15">
         <f>((C7-1)+(5-C8)+(C9-1)+(5-C10)+(C11-1)+(5-C12)+(C13-1)+(5-C14)+(C15-1)+(5-C16))*2.5</f>
-        <v>80</v>
+        <v>87.5</v>
       </c>
       <c r="D17" s="16">
         <f t="shared" ref="D17" si="0">((D7-1)+(5-D8)+(D9-1)+(5-D10)+(D11-1)+(5-D12)+(D13-1)+(5-D14)+(D15-1)+(5-D16))*2.5</f>
-        <v>85</v>
+        <v>77.5</v>
       </c>
       <c r="E17" s="17">
         <f>((E7-1)+(5-E8)+(E9-1)+(5-E10)+(E11-1)+(5-E12)+(E13-1)+(5-E14)+(E15-1)+(5-E16))*2.5</f>
-        <v>85</v>
+        <v>77.5</v>
       </c>
       <c r="F17" s="18">
         <f>((F7-1)+(5-F8)+(F9-1)+(5-F10)+(F11-1)+(5-F12)+(F13-1)+(5-F14)+(F15-1)+(5-F16))*2.5</f>
-        <v>82.5</v>
+        <v>85</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1265,13 +1280,13 @@
     <row r="18" spans="1:9" ht="13.5" thickTop="1">
       <c r="B18" s="19"/>
       <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>22</v>
+      <c r="E18" s="41" t="s">
+        <v>27</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>22</v>
@@ -1293,24 +1308,50 @@
     <row r="23" spans="1:9">
       <c r="B23" s="21"/>
     </row>
+    <row r="24" spans="1:9">
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="E25" s="11"/>
+    </row>
     <row r="26" spans="1:9">
       <c r="B26" s="1"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="22"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
